--- a/Files/EXCEL Output/Assignment1.xlsx
+++ b/Files/EXCEL Output/Assignment1.xlsx
@@ -130,8 +130,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Source" displayName="Source" ref="A1:I2" headerRowCount="1">
-  <autoFilter ref="A1:I2"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Source" displayName="Source" ref="A1:I3" headerRowCount="1">
+  <autoFilter ref="A1:I3"/>
   <tableColumns count="9">
     <tableColumn id="1" name="Table No"/>
     <tableColumn id="2" name="Table Name"/>
@@ -533,7 +533,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2" s="1" t="inlineStr">
         <is>
@@ -590,19 +590,19 @@
       </c>
       <c r="I2" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">1. Adding a column to the source table that combines the first name, middle name, and last name of employees into a single "EmployeeName" column.
-2. "Reordered Columns" is rearranging the columns in a table to be in the specified order.
-3. "Table.RemoveColumns" removes five columns (FirstName, MiddleName, LastName, Gender, and City) from the reordered column table.
-4. Renaming the column "Name" to "DepartmentName" in the table that has had columns removed.
-5. "VacationDays" column has been added to the table, calculated by dividing the existing column "VacationHours" by 8.
-6. "Added Custom1" adds a column for SickLeaveDays to the original table by dividing each SickLeaveHours value by 8.
-7. This formula adds a new round up column to the table, which shows the number of vacation days rounded up to the nearest whole number.
+          <t xml:space="preserve">1. This sentence describes a process of combining three separate columns containing the first name, middle name, and last name of an employee into one column containing the full name of the employee.
+2. Reordering columns changes the order of columns in a table, here the columns being reordered are EmployeeName, FirstName, MiddleName, LastName, Gender, VacationHours, SickLeaveHours, MaritalStatus, Name, and City.
+3. "Removed Columns" means that the table with the reordered columns had the "FirstName", "MiddleName", "LastName", "Gender", and "City" columns removed.
+4. The table "Removed Columns" has been renamed such that its "Name" column is now called "DepartmentName".
+5. "Added Custom" adds a new column called "VacationDays" which calculates the number of vacation days by dividing the number of vacation hours by 8.
+6. The column "SickLeaveDays" was added to the table where it divided the column "SickLeaveHours" by 8.
+7. This will add a new column called "Round Up" to the table which round up each value in the "VacationDays" column to the nearest integer.
 8. "Removed Columns1" removes the "Round Up" column from the "Inserted Round Up" table.
-9. This sentence means that the columns of the table named "Removed Columns1" have been rounded off to two decimal places and the data type is set to number.
-10. "Rounded Off1" takes the data from "Rounded Off" and rounds each number in the column "SickLeaveDays" to two decimal places.
-11. "Removed Columns2" removed the columns "VacationHours" and "SickLeaveHours" from the table "Rounded Off1".
-12. "Reordered Columns1" takes the columns from "Removed Columns2" and arranges them in the order of "EmployeeName, DepartmentName, VacationDays, SickLeaveDays, and MaritalStatus".
-13. This deletes the "MaritalStatus" column from the table that was previously reordered.
+9. Rounded Off is a process that removes unnecessary data from a table and rounds the remaining numbers off to two decimal places.
+10. This sentence means that the SickLeaveDays column of the Rounded Off table is being rounded to 2 decimal places and the type changed to number.
+11. "Removed Columns2" removes the columns "VacationHours" and "SickLeaveHours" from the previously rounded off table.
+12. This sentence means that the table has been rearranged so that the columns appear in the order of "EmployeeName", "DepartmentName", "VacationDays", "SickLeaveDays", and "MaritalStatus".
+13. This statement removes the "MaritalStatus" column from the table "Reordered Columns1".
 </t>
         </is>
       </c>

--- a/Files/EXCEL Output/Assignment1.xlsx
+++ b/Files/EXCEL Output/Assignment1.xlsx
@@ -590,19 +590,19 @@
       </c>
       <c r="I2" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">1. This sentence describes a process of combining three separate columns containing the first name, middle name, and last name of an employee into one column containing the full name of the employee.
-2. Reordering columns changes the order of columns in a table, here the columns being reordered are EmployeeName, FirstName, MiddleName, LastName, Gender, VacationHours, SickLeaveHours, MaritalStatus, Name, and City.
-3. "Removed Columns" means that the table with the reordered columns had the "FirstName", "MiddleName", "LastName", "Gender", and "City" columns removed.
-4. The table "Removed Columns" has been renamed such that its "Name" column is now called "DepartmentName".
-5. "Added Custom" adds a new column called "VacationDays" which calculates the number of vacation days by dividing the number of vacation hours by 8.
-6. The column "SickLeaveDays" was added to the table where it divided the column "SickLeaveHours" by 8.
-7. This will add a new column called "Round Up" to the table which round up each value in the "VacationDays" column to the nearest integer.
-8. "Removed Columns1" removes the "Round Up" column from the "Inserted Round Up" table.
-9. Rounded Off is a process that removes unnecessary data from a table and rounds the remaining numbers off to two decimal places.
-10. This sentence means that the SickLeaveDays column of the Rounded Off table is being rounded to 2 decimal places and the type changed to number.
-11. "Removed Columns2" removes the columns "VacationHours" and "SickLeaveHours" from the previously rounded off table.
-12. This sentence means that the table has been rearranged so that the columns appear in the order of "EmployeeName", "DepartmentName", "VacationDays", "SickLeaveDays", and "MaritalStatus".
-13. This statement removes the "MaritalStatus" column from the table "Reordered Columns1".
+          <t xml:space="preserve">1. The "Inserted Merged Column" combines the FirstName, MiddleName, and LastName columns into one column of text values with a space between each name.
+2. "Reordered Columns" means arranging the columns in the table in a specific order.
+3. "Removed Columns" means that the columns named "FirstName", "MiddleName", "LastName", "Gender" and "City" have been taken away from the "Reordered Columns" table.
+4. Table columns have been renamed from "Name" to "DepartmentName".
+5. This formulated column divides the data in the VacationHours column by 8 to produce a new column with the data for VacationDays.
+6. This sentence means that the Custom1 column has been added to the table, and its values are determined by the SickLeaveHours column divided by 8.
+7. This sentence adds a new column called "Round Up" to the table, and it calculates the rounded up integer of the "VacationDays" column and stores it as an integer.
+8. Table "Inserted Round Up" had its column "Round Up" removed, resulting in "Removed Columns1".
+9. Rounded Off means to round the number of Vacation Days to two decimal places.
+10. The code rounds the "Sick Leave Days" column to 2 decimal places and changes the data type to a number.
+11. Table.RemoveColumns removes the columns "VacationHours" and "SickLeaveHours" from the table "RoundedOff1".
+12. Reorder Columns1 rearranges the Removed Columns2 table so that the columns are in the specified order: EmployeeName, DepartmentName, VacationDays, SickLeaveDays, and MaritalStatus.
+13. This sentence means that the MaritalStatus column has been removed from the Reordered Columns1 table.
 </t>
         </is>
       </c>
